--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H2">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I2">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J2">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1233133333333333</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N2">
-        <v>0.36994</v>
+        <v>0.399619</v>
       </c>
       <c r="O2">
-        <v>0.003513466091996425</v>
+        <v>0.004085296756603924</v>
       </c>
       <c r="P2">
-        <v>0.003597444676524823</v>
+        <v>0.004098425343137321</v>
       </c>
       <c r="Q2">
-        <v>5.048124621315556</v>
+        <v>4.764987910717222</v>
       </c>
       <c r="R2">
-        <v>45.43312159184</v>
+        <v>42.884891196455</v>
       </c>
       <c r="S2">
-        <v>0.0004605852128509832</v>
+        <v>0.0004324865521476245</v>
       </c>
       <c r="T2">
-        <v>0.0004923115400637613</v>
+        <v>0.0004559346952688618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H3">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I3">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J3">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.470782</v>
       </c>
       <c r="O3">
-        <v>0.03296338560229101</v>
+        <v>0.0354817324688748</v>
       </c>
       <c r="P3">
-        <v>0.03375127379920576</v>
+        <v>0.03559575723202559</v>
       </c>
       <c r="Q3">
-        <v>47.36157233448355</v>
+        <v>41.38500489399888</v>
       </c>
       <c r="R3">
-        <v>426.254151010352</v>
+        <v>372.46504404599</v>
       </c>
       <c r="S3">
-        <v>0.004321216592499759</v>
+        <v>0.003756244173665507</v>
       </c>
       <c r="T3">
-        <v>0.004618873416352872</v>
+        <v>0.00395989663533178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H4">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I4">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J4">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.93318133333333</v>
+        <v>16.73711766666667</v>
       </c>
       <c r="N4">
-        <v>44.799544</v>
+        <v>50.211353</v>
       </c>
       <c r="O4">
-        <v>0.4254789392358271</v>
+        <v>0.5133096213032781</v>
       </c>
       <c r="P4">
-        <v>0.4356487026910839</v>
+        <v>0.5149592027616658</v>
       </c>
       <c r="Q4">
-        <v>611.3252989406649</v>
+        <v>598.7114977660094</v>
       </c>
       <c r="R4">
-        <v>5501.927690465984</v>
+        <v>5388.403479894086</v>
       </c>
       <c r="S4">
-        <v>0.05577663272116286</v>
+        <v>0.05434109723921354</v>
       </c>
       <c r="T4">
-        <v>0.05961867465209016</v>
+        <v>0.05728731098644522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H5">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I5">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J5">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.4579325</v>
+        <v>0.3133455</v>
       </c>
       <c r="N5">
-        <v>4.915865</v>
+        <v>0.626691</v>
       </c>
       <c r="O5">
-        <v>0.07003186323592478</v>
+        <v>0.009609973661260611</v>
       </c>
       <c r="P5">
-        <v>0.0478038394733327</v>
+        <v>0.006427237635638122</v>
       </c>
       <c r="Q5">
-        <v>100.6213134896067</v>
+        <v>11.2088328085825</v>
       </c>
       <c r="R5">
-        <v>603.7278809376401</v>
+        <v>67.252996851495</v>
       </c>
       <c r="S5">
-        <v>0.009180575474556816</v>
+        <v>0.001017351889619664</v>
       </c>
       <c r="T5">
-        <v>0.006541971857316165</v>
+        <v>0.0007150064689435144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H6">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I6">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J6">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.425991</v>
+        <v>14.265684</v>
       </c>
       <c r="N6">
-        <v>49.277973</v>
+        <v>42.797052</v>
       </c>
       <c r="O6">
-        <v>0.4680123458339605</v>
+        <v>0.4375133758099827</v>
       </c>
       <c r="P6">
-        <v>0.4791987393598529</v>
+        <v>0.4389193770275331</v>
       </c>
       <c r="Q6">
-        <v>672.4370135422587</v>
+        <v>510.30465366846</v>
       </c>
       <c r="R6">
-        <v>6051.933121880329</v>
+        <v>4592.74188301614</v>
       </c>
       <c r="S6">
-        <v>0.06135239682940478</v>
+        <v>0.04631699058744103</v>
       </c>
       <c r="T6">
-        <v>0.06557851213399592</v>
+        <v>0.048828160978396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>424.499008</v>
       </c>
       <c r="I7">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J7">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1233133333333333</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N7">
-        <v>0.36994</v>
+        <v>0.399619</v>
       </c>
       <c r="O7">
-        <v>0.003513466091996425</v>
+        <v>0.004085296756603924</v>
       </c>
       <c r="P7">
-        <v>0.003597444676524823</v>
+        <v>0.004098425343137321</v>
       </c>
       <c r="Q7">
-        <v>17.44879589105778</v>
+        <v>18.84865211977245</v>
       </c>
       <c r="R7">
-        <v>157.03916301952</v>
+        <v>169.637869077952</v>
       </c>
       <c r="S7">
-        <v>0.001592008512535856</v>
+        <v>0.001710767943309094</v>
       </c>
       <c r="T7">
-        <v>0.001701670268026434</v>
+        <v>0.001803520726910661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>424.499008</v>
       </c>
       <c r="I8">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J8">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.470782</v>
       </c>
       <c r="O8">
-        <v>0.03296338560229101</v>
+        <v>0.0354817324688748</v>
       </c>
       <c r="P8">
-        <v>0.03375127379920576</v>
+        <v>0.03559575723202559</v>
       </c>
       <c r="Q8">
         <v>163.7048351093618</v>
@@ -948,10 +948,10 @@
         <v>1473.343515984256</v>
       </c>
       <c r="S8">
-        <v>0.01493624503745532</v>
+        <v>0.01485840909419778</v>
       </c>
       <c r="T8">
-        <v>0.0159650930859094</v>
+        <v>0.01566398813767222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>424.499008</v>
       </c>
       <c r="I9">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J9">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.93318133333333</v>
+        <v>16.73711766666667</v>
       </c>
       <c r="N9">
-        <v>44.799544</v>
+        <v>50.211353</v>
       </c>
       <c r="O9">
-        <v>0.4254789392358271</v>
+        <v>0.5133096213032781</v>
       </c>
       <c r="P9">
-        <v>0.4356487026910839</v>
+        <v>0.5149592027616658</v>
       </c>
       <c r="Q9">
-        <v>2113.040220761372</v>
+        <v>2368.296615426425</v>
       </c>
       <c r="R9">
-        <v>19017.36198685235</v>
+        <v>21314.66953883782</v>
       </c>
       <c r="S9">
-        <v>0.1927914132176154</v>
+        <v>0.214954677086367</v>
       </c>
       <c r="T9">
-        <v>0.2060713954855977</v>
+        <v>0.2266088846169171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>424.499008</v>
       </c>
       <c r="I10">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J10">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>2.4579325</v>
+        <v>0.3133455</v>
       </c>
       <c r="N10">
-        <v>4.915865</v>
+        <v>0.626691</v>
       </c>
       <c r="O10">
-        <v>0.07003186323592478</v>
+        <v>0.009609973661260611</v>
       </c>
       <c r="P10">
-        <v>0.0478038394733327</v>
+        <v>0.006427237635638122</v>
       </c>
       <c r="Q10">
-        <v>347.7966359936534</v>
+        <v>44.338284637088</v>
       </c>
       <c r="R10">
-        <v>2086.77981596192</v>
+        <v>266.029707822528</v>
       </c>
       <c r="S10">
-        <v>0.03173257390310757</v>
+        <v>0.004024293914304572</v>
       </c>
       <c r="T10">
-        <v>0.02261226499467959</v>
+        <v>0.002828319493988947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>424.499008</v>
       </c>
       <c r="I11">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J11">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.425991</v>
+        <v>14.265684</v>
       </c>
       <c r="N11">
-        <v>49.277973</v>
+        <v>42.797052</v>
       </c>
       <c r="O11">
-        <v>0.4680123458339605</v>
+        <v>0.4375133758099827</v>
       </c>
       <c r="P11">
-        <v>0.4791987393598529</v>
+        <v>0.4389193770275331</v>
       </c>
       <c r="Q11">
-        <v>2324.272294972309</v>
+        <v>2018.589568813824</v>
       </c>
       <c r="R11">
-        <v>20918.45065475078</v>
+        <v>18167.30611932442</v>
       </c>
       <c r="S11">
-        <v>0.2120639900970754</v>
+        <v>0.1832140729788432</v>
       </c>
       <c r="T11">
-        <v>0.2266715184157144</v>
+        <v>0.1931473987289727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H12">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I12">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J12">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1233133333333333</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N12">
-        <v>0.36994</v>
+        <v>0.399619</v>
       </c>
       <c r="O12">
-        <v>0.003513466091996425</v>
+        <v>0.004085296756603924</v>
       </c>
       <c r="P12">
-        <v>0.003597444676524823</v>
+        <v>0.004098425343137321</v>
       </c>
       <c r="Q12">
-        <v>5.083160241164445</v>
+        <v>6.970857572223111</v>
       </c>
       <c r="R12">
-        <v>45.74844217048</v>
+        <v>62.737718150008</v>
       </c>
       <c r="S12">
-        <v>0.000463781823401628</v>
+        <v>0.0006326988049942709</v>
       </c>
       <c r="T12">
-        <v>0.000495728341600725</v>
+        <v>0.0006670018649587284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H13">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I13">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J13">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.470782</v>
       </c>
       <c r="O13">
-        <v>0.03296338560229101</v>
+        <v>0.0354817324688748</v>
       </c>
       <c r="P13">
-        <v>0.03375127379920576</v>
+        <v>0.03559575723202559</v>
       </c>
       <c r="Q13">
-        <v>47.69027698586044</v>
+        <v>60.54348513518044</v>
       </c>
       <c r="R13">
-        <v>429.212492872744</v>
+        <v>544.891366216624</v>
       </c>
       <c r="S13">
-        <v>0.004351207235199083</v>
+        <v>0.005495133173837142</v>
       </c>
       <c r="T13">
-        <v>0.004650929893814259</v>
+        <v>0.005793063059727353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H14">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I14">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J14">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.93318133333333</v>
+        <v>16.73711766666667</v>
       </c>
       <c r="N14">
-        <v>44.799544</v>
+        <v>50.211353</v>
       </c>
       <c r="O14">
-        <v>0.4254789392358271</v>
+        <v>0.5133096213032781</v>
       </c>
       <c r="P14">
-        <v>0.4356487026910839</v>
+        <v>0.5149592027616658</v>
       </c>
       <c r="Q14">
-        <v>615.5680945101832</v>
+        <v>875.8747463749662</v>
       </c>
       <c r="R14">
-        <v>5540.112850591649</v>
+        <v>7882.872717374697</v>
       </c>
       <c r="S14">
-        <v>0.05616374061707699</v>
+        <v>0.07949737885397214</v>
       </c>
       <c r="T14">
-        <v>0.06003244756335813</v>
+        <v>0.08380749186875759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H15">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I15">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J15">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>2.4579325</v>
+        <v>0.3133455</v>
       </c>
       <c r="N15">
-        <v>4.915865</v>
+        <v>0.626691</v>
       </c>
       <c r="O15">
-        <v>0.07003186323592478</v>
+        <v>0.009609973661260611</v>
       </c>
       <c r="P15">
-        <v>0.0478038394733327</v>
+        <v>0.006427237635638122</v>
       </c>
       <c r="Q15">
-        <v>101.3196579942634</v>
+        <v>16.397770261652</v>
       </c>
       <c r="R15">
-        <v>607.9179479655801</v>
+        <v>98.38662156991199</v>
       </c>
       <c r="S15">
-        <v>0.009244291641737488</v>
+        <v>0.001488317547966931</v>
       </c>
       <c r="T15">
-        <v>0.006587375260807287</v>
+        <v>0.001046006485559622</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H16">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I16">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J16">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.425991</v>
+        <v>14.265684</v>
       </c>
       <c r="N16">
-        <v>49.277973</v>
+        <v>42.797052</v>
       </c>
       <c r="O16">
-        <v>0.4680123458339605</v>
+        <v>0.4375133758099827</v>
       </c>
       <c r="P16">
-        <v>0.4791987393598529</v>
+        <v>0.4389193770275331</v>
       </c>
       <c r="Q16">
-        <v>677.1039442038574</v>
+        <v>746.541465753696</v>
       </c>
       <c r="R16">
-        <v>6093.935497834716</v>
+        <v>6718.873191783264</v>
       </c>
       <c r="S16">
-        <v>0.06177820233409794</v>
+        <v>0.06775864925761205</v>
       </c>
       <c r="T16">
-        <v>0.06603364824764908</v>
+        <v>0.07143232303452957</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H17">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I17">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J17">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1233133333333333</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N17">
-        <v>0.36994</v>
+        <v>0.399619</v>
       </c>
       <c r="O17">
-        <v>0.003513466091996425</v>
+        <v>0.004085296756603924</v>
       </c>
       <c r="P17">
-        <v>0.003597444676524823</v>
+        <v>0.004098425343137321</v>
       </c>
       <c r="Q17">
-        <v>4.861536113263334</v>
+        <v>6.532860451124334</v>
       </c>
       <c r="R17">
-        <v>29.16921667958</v>
+        <v>39.197162706746</v>
       </c>
       <c r="S17">
-        <v>0.0004435610872313618</v>
+        <v>0.0005929446926431056</v>
       </c>
       <c r="T17">
-        <v>0.0003160764984406612</v>
+        <v>0.0004167282680568286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H18">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I18">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J18">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.470782</v>
       </c>
       <c r="O18">
-        <v>0.03296338560229101</v>
+        <v>0.0354817324688748</v>
       </c>
       <c r="P18">
-        <v>0.03375127379920576</v>
+        <v>0.03559575723202559</v>
       </c>
       <c r="Q18">
-        <v>45.61099647041233</v>
+        <v>56.73938041553132</v>
       </c>
       <c r="R18">
-        <v>273.665978822474</v>
+        <v>340.4362824931879</v>
       </c>
       <c r="S18">
-        <v>0.004161496019524896</v>
+        <v>0.005149859656876232</v>
       </c>
       <c r="T18">
-        <v>0.002965433912015124</v>
+        <v>0.003619379888500836</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H19">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I19">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J19">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.93318133333333</v>
+        <v>16.73711766666667</v>
       </c>
       <c r="N19">
-        <v>44.799544</v>
+        <v>50.211353</v>
       </c>
       <c r="O19">
-        <v>0.4254789392358271</v>
+        <v>0.5133096213032781</v>
       </c>
       <c r="P19">
-        <v>0.4356487026910839</v>
+        <v>0.5149592027616658</v>
       </c>
       <c r="Q19">
-        <v>588.7295264468014</v>
+        <v>820.8412568249836</v>
       </c>
       <c r="R19">
-        <v>3532.377158680808</v>
+        <v>4925.047540949902</v>
       </c>
       <c r="S19">
-        <v>0.05371501985216313</v>
+        <v>0.07450235166941381</v>
       </c>
       <c r="T19">
-        <v>0.03827670162528608</v>
+        <v>0.052361099378358</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H20">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I20">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J20">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>2.4579325</v>
+        <v>0.3133455</v>
       </c>
       <c r="N20">
-        <v>4.915865</v>
+        <v>0.626691</v>
       </c>
       <c r="O20">
-        <v>0.07003186323592478</v>
+        <v>0.009609973661260611</v>
       </c>
       <c r="P20">
-        <v>0.0478038394733327</v>
+        <v>0.006427237635638122</v>
       </c>
       <c r="Q20">
-        <v>96.90215396588877</v>
+        <v>15.3674556851985</v>
       </c>
       <c r="R20">
-        <v>387.6086158635551</v>
+        <v>61.46982274079399</v>
       </c>
       <c r="S20">
-        <v>0.008841243542530944</v>
+        <v>0.001394802683470508</v>
       </c>
       <c r="T20">
-        <v>0.004200111899245826</v>
+        <v>0.0006535221174088368</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H21">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I21">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J21">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.425991</v>
+        <v>14.265684</v>
       </c>
       <c r="N21">
-        <v>49.277973</v>
+        <v>42.797052</v>
       </c>
       <c r="O21">
-        <v>0.4680123458339605</v>
+        <v>0.4375133758099827</v>
       </c>
       <c r="P21">
-        <v>0.4791987393598529</v>
+        <v>0.4389193770275331</v>
       </c>
       <c r="Q21">
-        <v>647.5824331727185</v>
+        <v>699.634322781228</v>
       </c>
       <c r="R21">
-        <v>3885.494599036312</v>
+        <v>4197.805936687368</v>
       </c>
       <c r="S21">
-        <v>0.05908469287029704</v>
+        <v>0.06350119700057057</v>
       </c>
       <c r="T21">
-        <v>0.04210306848703423</v>
+        <v>0.04462936286287197</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H22">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I22">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J22">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1233133333333333</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N22">
-        <v>0.36994</v>
+        <v>0.399619</v>
       </c>
       <c r="O22">
-        <v>0.003513466091996425</v>
+        <v>0.004085296756603924</v>
       </c>
       <c r="P22">
-        <v>0.003597444676524823</v>
+        <v>0.004098425343137321</v>
       </c>
       <c r="Q22">
-        <v>6.06681586246</v>
+        <v>7.893034894208445</v>
       </c>
       <c r="R22">
-        <v>54.60134276214</v>
+        <v>71.03731404787601</v>
       </c>
       <c r="S22">
-        <v>0.0005535294559765962</v>
+        <v>0.0007163987635098287</v>
       </c>
       <c r="T22">
-        <v>0.0005916580283932411</v>
+        <v>0.0007552397879422416</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H23">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I23">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J23">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.470782</v>
       </c>
       <c r="O23">
-        <v>0.03296338560229101</v>
+        <v>0.0354817324688748</v>
       </c>
       <c r="P23">
-        <v>0.03375127379920576</v>
+        <v>0.03559575723202559</v>
       </c>
       <c r="Q23">
-        <v>56.91894710693799</v>
+        <v>68.55280513736977</v>
       </c>
       <c r="R23">
-        <v>512.270523962442</v>
+        <v>616.975246236328</v>
       </c>
       <c r="S23">
-        <v>0.005193220717611944</v>
+        <v>0.006222086370298133</v>
       </c>
       <c r="T23">
-        <v>0.0055509434911141</v>
+        <v>0.006559429510793403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H24">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I24">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J24">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.93318133333333</v>
+        <v>16.73711766666667</v>
       </c>
       <c r="N24">
-        <v>44.799544</v>
+        <v>50.211353</v>
       </c>
       <c r="O24">
-        <v>0.4254789392358271</v>
+        <v>0.5133096213032781</v>
       </c>
       <c r="P24">
-        <v>0.4356487026910839</v>
+        <v>0.5149592027616658</v>
       </c>
       <c r="Q24">
-        <v>734.6882850466959</v>
+        <v>991.7445399603569</v>
       </c>
       <c r="R24">
-        <v>6612.194565420264</v>
+        <v>8925.700859643213</v>
       </c>
       <c r="S24">
-        <v>0.06703213282780879</v>
+        <v>0.09001411645431154</v>
       </c>
       <c r="T24">
-        <v>0.07164948336475173</v>
+        <v>0.094894415911188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H25">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I25">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J25">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>2.4579325</v>
+        <v>0.3133455</v>
       </c>
       <c r="N25">
-        <v>4.915865</v>
+        <v>0.626691</v>
       </c>
       <c r="O25">
-        <v>0.07003186323592478</v>
+        <v>0.009609973661260611</v>
       </c>
       <c r="P25">
-        <v>0.0478038394733327</v>
+        <v>0.006427237635638122</v>
       </c>
       <c r="Q25">
-        <v>120.9262897755525</v>
+        <v>18.567037343894</v>
       </c>
       <c r="R25">
-        <v>725.557738653315</v>
+        <v>111.402224063364</v>
       </c>
       <c r="S25">
-        <v>0.01103317867399196</v>
+        <v>0.001685207625898936</v>
       </c>
       <c r="T25">
-        <v>0.00786211546128383</v>
+        <v>0.001184383069737203</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H26">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I26">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J26">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.425991</v>
+        <v>14.265684</v>
       </c>
       <c r="N26">
-        <v>49.277973</v>
+        <v>42.797052</v>
       </c>
       <c r="O26">
-        <v>0.4680123458339605</v>
+        <v>0.4375133758099827</v>
       </c>
       <c r="P26">
-        <v>0.4791987393598529</v>
+        <v>0.4389193770275331</v>
       </c>
       <c r="Q26">
-        <v>808.132097816607</v>
+        <v>845.3017118937121</v>
       </c>
       <c r="R26">
-        <v>7273.188880349464</v>
+        <v>7607.715407043409</v>
       </c>
       <c r="S26">
-        <v>0.07373306370308536</v>
+        <v>0.07672246598551581</v>
       </c>
       <c r="T26">
-        <v>0.07881199207545918</v>
+        <v>0.08088213142276289</v>
       </c>
     </row>
   </sheetData>
